--- a/pred_ohlcv/54_21/2020-01-20 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 EOS ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>-116833.9601451</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-114781.6063451001</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-114984.7072451001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-144306.20290416</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-142961.19170416</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-144047.0045041601</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-152958.9936041601</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-131353.3881041601</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-124283.52280416</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-119498.42220416</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-124252.59900416</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-124252.59900416</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-128000.28990416</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-128000.28990416</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-131286.4893041601</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-129264.3798041601</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-134632.2926041601</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-137293.3565041601</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-136075.5699041601</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-135350.2973041601</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-131867.5298041601</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-134347.4866041601</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-131933.7483041601</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-134688.7361041601</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-141035.7712041601</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-150559.8152075901</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-138682.7130075901</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-140342.6072075901</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-140923.7121075901</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-140717.4633075901</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-140845.0315075901</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-140494.5315075901</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-141820.6926075901</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-142550.9392075901</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-146073.0142075901</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-144361.1487075901</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-144361.1487075901</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-146130.6063075901</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-145335.1894075901</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-142565.8993408501</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-142511.8022408501</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-143447.0481408501</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-143011.4834408501</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-144514.6381408501</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-143721.2735408501</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-143721.2735408501</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-143772.8397408501</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-143772.8397408501</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-146697.6771408501</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-146697.6771408501</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-146360.6771408501</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-143408.5167408501</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-143433.6400408501</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-144058.4052408501</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-176655.1511408501</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-176655.1511408501</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-176897.1144408501</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-176783.6823408501</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-181477.0868408501</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-180094.4625525301</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-180094.4625525301</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-180174.1784525301</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-179660.6770525301</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-177909.3398525301</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-174507.5406525301</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-173882.7754525301</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-173884.2495525301</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-171720.9578525301</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-172920.7919525301</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-176981.5685525301</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-176984.5665525301</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-178665.6213525301</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-179045.2181525301</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-176987.1096525301</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-180371.7795525301</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-180371.7795525301</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-180371.7795525301</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-180584.2914525301</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-180590.1514525301</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-179624.9575525301</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-182195.4846525301</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-182529.3761525301</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-182865.1598525301</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-182966.4868525301</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-182726.9553525301</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-183295.12365253</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-186708.18615253</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-179493.28825253</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-180413.73285253</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-180030.74115253</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-180009.56785253</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-179973.85375253</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-179973.85375253</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-177326.99925253</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-177889.27515253</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-178656.48365253</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-178656.48365253</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-178100.71765253</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-177714.74805253</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-177824.29225253</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-177824.29225253</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-174335.31715253</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-180142.38215253</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-179921.92555253</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-172566.59145253</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-172366.45145253</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-170238.27205253</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-170378.27205253</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-170408.87965253</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-171088.97325253</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-171128.01105253</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-171194.52205253</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-172825.75615253</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-173625.50705253</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-174302.82315253</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-174387.41215253</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-174058.78725253</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-174058.58725253</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-174058.58725253</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-174038.58075253</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-174108.58075253</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-173917.52085253</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-172860.19935253</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-172260.19935253</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-171961.19935253</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-171650.13735253</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-171650.13735253</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-171650.13735253</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-172265.42575253</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-169235.02735253</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-169608.67865253</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-169653.24395253</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-169335.39435253</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-169263.24555253</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-169657.61895253</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-166514.98515253</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-190567.98565073</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-190748.99065073</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-190791.67195073</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-188492.90955073</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-188588.83245073</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-192576.58025073</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-192526.93295073</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-193376.94325073</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-199502.22885073</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-198432.18475073</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-203328.49605073</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-196052.19985073</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-196182.88935073</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-197183.85805073</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-197183.85805073</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-194870.18435073</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-185982.54285073</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-185161.91275073</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-184936.53045073</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-171471.90155073</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-176986.61885921</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-176986.61885921</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-177170.99535921</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-175093.32530312</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-175713.92410312</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-174630.16090312</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-173234.29030312</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-174328.78550312</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-174318.05010312</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-172421.33400312</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-172422.79310312</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-171260.20690312</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-171620.20690312</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-165102.44690312</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-164392.34340312</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-163897.25040312</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-163288.40670312</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-164478.69662488</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-166458.9320248801</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-168513.97592488</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-168603.67012488</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-169066.99862488</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-169066.99862488</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-163603.9072359201</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-164319.81813592</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-167117.08873592</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-166788.99272572</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-166188.99522572</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-167228.81202572</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-165928.21982572</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-165992.21982572</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-166303.19728429</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-166303.19728429</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-160035.34648429</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-156969.12598429</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-156762.39548429</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-156248.54928429</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-156331.31618429</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-143041.37743163</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-138320.91783163</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-127508.69676712</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-135032.10990242</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-140026.94240242</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-134645.76750242</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-110956.01038106</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-100742.93888106</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-104656.95803351</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-108002.85983649</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-110606.09650229</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-104986.07363252</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-105879.38243252</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-104280.10685382</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-96287.57245381997</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-98335.05685381997</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-98335.05685381997</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-97336.83864317997</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-95584.06372982997</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-95608.82882982997</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-95121.45532982997</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-101963.38362983</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-107790.25172983</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-99028.74721961997</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-98161.68294662997</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-93899.69654662997</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-93019.94904662998</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-93556.45064662998</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-90381.18074662998</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-91794.38854662998</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-93603.25345925998</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-96891.19285925999</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-100218.94925926</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-98307.33785925999</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-102230.78545926</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-102006.81495926</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-105939.98485926</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-108840.21205926</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-111030.75435926</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-117609.55395926</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-113077.95535926</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-119529.20885926</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-114035.52792683</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-118400.32442683</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-122143.74012683</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-125512.62352683</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-96269.67863359988</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-96385.69313359988</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-96343.17183359989</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-96756.61563359988</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-96756.61563359988</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-99373.03433359988</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-93293.98773359988</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-93490.09135177988</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-93776.31230819988</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-94459.51250819987</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-94320.67690819988</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-93897.56810819988</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-95640.47340819988</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-95640.47340819988</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-96558.32870819987</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>-97808.32827468988</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-101624.5418256299</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-108717.3084256299</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-105640.3431122399</v>
       </c>
       <c r="H888">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-106009.9373122399</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-106095.8077122399</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-108830.8184122399</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-107233.6419122399</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-114196.2284122399</v>
       </c>
       <c r="H895">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-445566.4584301799</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-405123.6464301799</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-380340.07063018</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-387206.6939301799</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-442561.3171931599</v>
       </c>
       <c r="H1011">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-453714.4380931599</v>
       </c>
       <c r="H1012">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-436176.4494931599</v>
       </c>
       <c r="H1013">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-442428.3440931599</v>
       </c>
       <c r="H1014">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-505133.7250970899</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-532327.3210970899</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-494876.4347970899</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-476514.9878970899</v>
       </c>
       <c r="H1036">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-485062.5199118299</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-422666.0386897399</v>
       </c>
       <c r="H1044">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-419118.15978974</v>
       </c>
       <c r="H1046">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-419316.80878974</v>
       </c>
       <c r="H1047">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-423592.17308974</v>
       </c>
       <c r="H1048">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-418839.04858974</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-423644.83467428</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-432957.38580382</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-434999.21740382</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-434999.21740382</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-434656.65545261</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-434698.72865261</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-428892.31863987</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-428892.31863987</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-428227.28563033</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-449617.59099275</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-451295.78939275</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-442579.80809275</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-447761.72719275</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-451155.84849275</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-451155.84849275</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-448968.22349275</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-449282.0110927499</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-450467.63620136</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-449247.81860136</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-449627.38870136</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-454138.18660136</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-458814.04030136</v>
       </c>
       <c r="H1083">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-467379.70110136</v>
       </c>
       <c r="H1084">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-468795.4679136</v>
       </c>
       <c r="H1085">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-474270.9418136</v>
       </c>
       <c r="H1086">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-470811.6525136</v>
       </c>
       <c r="H1087">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-454935.7023135999</v>
       </c>
       <c r="H1088">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-454658.6425135999</v>
       </c>
       <c r="H1089">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-462360.4590203</v>
       </c>
       <c r="H1090">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-462360.4590203</v>
       </c>
       <c r="H1091">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-462360.4590203</v>
       </c>
       <c r="H1092">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-455962.3397099799</v>
       </c>
       <c r="H1093">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-454303.5849645999</v>
       </c>
       <c r="H1094">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-454659.8878645999</v>
       </c>
       <c r="H1095">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-435953.8267645999</v>
       </c>
       <c r="H1096">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-437178.6484645999</v>
       </c>
       <c r="H1097">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-437507.6608645999</v>
       </c>
       <c r="H1098">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-447955.2332645999</v>
       </c>
       <c r="H1099">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-440745.8051645999</v>
       </c>
       <c r="H1100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-445263.4889645999</v>
       </c>
       <c r="H1101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-432810.3239645999</v>
       </c>
       <c r="H1102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-425997.2951327199</v>
       </c>
       <c r="H1103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-439825.1150327199</v>
       </c>
       <c r="H1104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29122,7 +29122,7 @@
         <v>-443304.2415634499</v>
       </c>
       <c r="H1105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:8">
@@ -29148,7 +29148,7 @@
         <v>-436854.5867634499</v>
       </c>
       <c r="H1106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1107" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-433601.7936634499</v>
       </c>
       <c r="H1107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-437131.0328634499</v>
       </c>
       <c r="H1108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-432140.2863634499</v>
       </c>
       <c r="H1109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-429138.1102634498</v>
       </c>
       <c r="H1111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-425787.7479734798</v>
       </c>
       <c r="H1116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-427983.3875734798</v>
       </c>
       <c r="H1117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-423473.6636734798</v>
       </c>
       <c r="H1118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-420059.5715734798</v>
       </c>
       <c r="H1119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-417037.1371734798</v>
       </c>
       <c r="H1120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29616,7 +29616,7 @@
         <v>-419897.4187509198</v>
       </c>
       <c r="H1124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1125" spans="1:8">
@@ -29642,7 +29642,7 @@
         <v>-419897.4187509198</v>
       </c>
       <c r="H1125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1126" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-420649.1358636398</v>
       </c>
       <c r="H1129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-423548.6964636398</v>
       </c>
       <c r="H1130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-422086.9481458698</v>
       </c>
       <c r="H1131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-422777.7499458698</v>
       </c>
       <c r="H1132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-428458.7811458698</v>
       </c>
       <c r="H1133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-429813.3685565699</v>
       </c>
       <c r="H1140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-429813.3685565699</v>
       </c>
       <c r="H1141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-432824.0274565699</v>
       </c>
       <c r="H1143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-433392.2474565699</v>
       </c>
       <c r="H1144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-432654.1171946598</v>
       </c>
       <c r="H1148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-432654.1171946598</v>
       </c>
       <c r="H1149">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-432684.1271946598</v>
       </c>
       <c r="H1150">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-431029.3245946598</v>
       </c>
       <c r="H1151">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-432210.1078946599</v>
       </c>
       <c r="H1152">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-426841.6221946598</v>
       </c>
       <c r="H1153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-426052.8457946599</v>
       </c>
       <c r="H1156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-426043.2008946599</v>
       </c>
       <c r="H1159">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 EOS ohlcv.xlsx
@@ -834,7 +834,7 @@
         <v>-116833.9601451</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-114781.6063451001</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-114984.7072451001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-144306.20290416</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-142961.19170416</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-144047.0045041601</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-152958.9936041601</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-131353.3881041601</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-124283.52280416</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-119498.42220416</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-124252.59900416</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-124252.59900416</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-128000.28990416</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-128000.28990416</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-131286.4893041601</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-129264.3798041601</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-134632.2926041601</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-137293.3565041601</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-136075.5699041601</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-135350.2973041601</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-131867.5298041601</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-134347.4866041601</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-131933.7483041601</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-134688.7361041601</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-141035.7712041601</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-150559.8152075901</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-138682.7130075901</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-140342.6072075901</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-140923.7121075901</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-140717.4633075901</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-140845.0315075901</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-140494.5315075901</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-141820.6926075901</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-142550.9392075901</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-146073.0142075901</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-144361.1487075901</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-144361.1487075901</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-146130.6063075901</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-145335.1894075901</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-142565.8993408501</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-142511.8022408501</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-143447.0481408501</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-143011.4834408501</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-144514.6381408501</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-143721.2735408501</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-143721.2735408501</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-143772.8397408501</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-143772.8397408501</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-146697.6771408501</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-146697.6771408501</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-146360.6771408501</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-143408.5167408501</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-143433.6400408501</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-144058.4052408501</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-176655.1511408501</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-176655.1511408501</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-176897.1144408501</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-176783.6823408501</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-181477.0868408501</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-180094.4625525301</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-180094.4625525301</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-180174.1784525301</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-179660.6770525301</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-177909.3398525301</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-174507.5406525301</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-173882.7754525301</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-173884.2495525301</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-171720.9578525301</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-172920.7919525301</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-176981.5685525301</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-176984.5665525301</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-178665.6213525301</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-179045.2181525301</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-176987.1096525301</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-180371.7795525301</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-180371.7795525301</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-180371.7795525301</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-180584.2914525301</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-180590.1514525301</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-179624.9575525301</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-182195.4846525301</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-182529.3761525301</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-182865.1598525301</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-182966.4868525301</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-182726.9553525301</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-183295.12365253</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-186708.18615253</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-179493.28825253</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-180413.73285253</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-180030.74115253</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-180009.56785253</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-179973.85375253</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-179973.85375253</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-177326.99925253</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-177889.27515253</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-178656.48365253</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-178656.48365253</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-178100.71765253</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-177714.74805253</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-177824.29225253</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-177824.29225253</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-174335.31715253</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-180142.38215253</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-179921.92555253</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-172566.59145253</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-172366.45145253</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-170238.27205253</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-170378.27205253</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-170408.87965253</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-171088.97325253</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-171128.01105253</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-171194.52205253</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-172825.75615253</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-173625.50705253</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-174302.82315253</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-174387.41215253</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-174058.78725253</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-174058.58725253</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-174058.58725253</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-174038.58075253</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-174108.58075253</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-173917.52085253</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-172860.19935253</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-172260.19935253</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-171961.19935253</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-171650.13735253</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-171650.13735253</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-171650.13735253</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-172265.42575253</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-169235.02735253</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-169608.67865253</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-169653.24395253</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-169335.39435253</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-169263.24555253</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-169657.61895253</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-166514.98515253</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-190567.98565073</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-190748.99065073</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-190791.67195073</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-188492.90955073</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-188588.83245073</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-192576.58025073</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-192526.93295073</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-193376.94325073</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-199502.22885073</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-198432.18475073</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-203328.49605073</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-196052.19985073</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-196182.88935073</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-197183.85805073</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-197183.85805073</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-194870.18435073</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-185982.54285073</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-185161.91275073</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-184936.53045073</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-171471.90155073</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-176986.61885921</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-176986.61885921</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-177170.99535921</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-175093.32530312</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-175713.92410312</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-174630.16090312</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-173234.29030312</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-174328.78550312</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-174318.05010312</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-172421.33400312</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-172422.79310312</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-171260.20690312</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-171620.20690312</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-165102.44690312</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-164392.34340312</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-163897.25040312</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-163288.40670312</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-164478.69662488</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-166458.9320248801</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-168513.97592488</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-168603.67012488</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-169066.99862488</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-169066.99862488</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-163603.9072359201</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-164319.81813592</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-167117.08873592</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-166788.99272572</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-166188.99522572</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-167228.81202572</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-165928.21982572</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-165992.21982572</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-166303.19728429</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-166303.19728429</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-160035.34648429</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-156969.12598429</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-156762.39548429</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-156248.54928429</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-156331.31618429</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-143041.37743163</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-138320.91783163</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-127508.69676712</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-135032.10990242</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-140026.94240242</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-134645.76750242</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-113283.79178106</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-116427.39168106</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-110956.01038106</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-100742.93888106</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-104656.95803351</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-108002.85983649</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-110606.09650229</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-104986.07363252</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-105879.38243252</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-104280.10685382</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-96287.57245381997</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-98335.05685381997</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-98335.05685381997</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-97336.83864317997</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-95584.06372982997</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-95608.82882982997</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-95121.45532982997</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-101963.38362983</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-107790.25172983</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-99028.74721961997</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-98161.68294662997</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-93899.69654662997</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-93019.94904662998</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-93556.45064662998</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-90381.18074662998</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-91794.38854662998</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-93603.25345925998</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-96891.19285925999</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-100218.94925926</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-98307.33785925999</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-102230.78545926</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-102006.81495926</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-105939.98485926</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-108840.21205926</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-111030.75435926</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-117609.55395926</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-113077.95535926</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-119529.20885926</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-114035.52792683</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-118400.32442683</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-122143.74012683</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-445566.4584301799</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-405123.6464301799</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-380340.07063018</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-387206.6939301799</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -26678,7 +26678,7 @@
         <v>-442561.3171931599</v>
       </c>
       <c r="H1011">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:8">
@@ -26704,7 +26704,7 @@
         <v>-453714.4380931599</v>
       </c>
       <c r="H1012">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1013" spans="1:8">
@@ -26730,7 +26730,7 @@
         <v>-436176.4494931599</v>
       </c>
       <c r="H1013">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1014" spans="1:8">
@@ -26756,7 +26756,7 @@
         <v>-442428.3440931599</v>
       </c>
       <c r="H1014">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1015" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-505133.7250970899</v>
       </c>
       <c r="H1033">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-532327.3210970899</v>
       </c>
       <c r="H1034">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-494876.4347970899</v>
       </c>
       <c r="H1035">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-476514.9878970899</v>
       </c>
       <c r="H1036">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-485062.5199118299</v>
       </c>
       <c r="H1037">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27380,7 +27380,7 @@
         <v>-447087.7830118299</v>
       </c>
       <c r="H1038">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1039" spans="1:8">
@@ -27484,7 +27484,7 @@
         <v>-431656.9517897399</v>
       </c>
       <c r="H1042">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1043" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-422666.0386897399</v>
       </c>
       <c r="H1044">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-421744.29538974</v>
       </c>
       <c r="H1049">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-418839.04858974</v>
       </c>
       <c r="H1051">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-423644.83467428</v>
       </c>
       <c r="H1062">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-432957.38580382</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-434999.21740382</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-434999.21740382</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-434656.65545261</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-434698.72865261</v>
       </c>
       <c r="H1067">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-428892.31863987</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-428892.31863987</v>
       </c>
       <c r="H1069">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-428227.28563033</v>
       </c>
       <c r="H1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>-449617.59099275</v>
       </c>
       <c r="H1071">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>-451295.78939275</v>
       </c>
       <c r="H1072">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>-442579.80809275</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>-447761.72719275</v>
       </c>
       <c r="H1074">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>-451155.84849275</v>
       </c>
       <c r="H1075">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>-451155.84849275</v>
       </c>
       <c r="H1076">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>-448968.22349275</v>
       </c>
       <c r="H1077">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>-449282.0110927499</v>
       </c>
       <c r="H1078">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>-450467.63620136</v>
       </c>
       <c r="H1079">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>-449247.81860136</v>
       </c>
       <c r="H1080">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>-449627.38870136</v>
       </c>
       <c r="H1081">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>-454138.18660136</v>
       </c>
       <c r="H1082">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>-458814.04030136</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>-467379.70110136</v>
       </c>
       <c r="H1084">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>-468795.4679136</v>
       </c>
       <c r="H1085">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
@@ -28628,7 +28628,7 @@
         <v>-474270.9418136</v>
       </c>
       <c r="H1086">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:8">
@@ -28654,7 +28654,7 @@
         <v>-470811.6525136</v>
       </c>
       <c r="H1087">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1088" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-454935.7023135999</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-462360.4590203</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-455962.3397099799</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-454303.5849645999</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-454659.8878645999</v>
       </c>
       <c r="H1095">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-435953.8267645999</v>
       </c>
       <c r="H1096">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-437178.6484645999</v>
       </c>
       <c r="H1097">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-437507.6608645999</v>
       </c>
       <c r="H1098">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-447955.2332645999</v>
       </c>
       <c r="H1099">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-445263.4889645999</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-432810.3239645999</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-425997.2951327199</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -29096,7 +29096,7 @@
         <v>-439825.1150327199</v>
       </c>
       <c r="H1104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1105" spans="1:8">
@@ -29174,7 +29174,7 @@
         <v>-433601.7936634499</v>
       </c>
       <c r="H1107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1108" spans="1:8">
@@ -29200,7 +29200,7 @@
         <v>-437131.0328634499</v>
       </c>
       <c r="H1108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1109" spans="1:8">
@@ -29226,7 +29226,7 @@
         <v>-432140.2863634499</v>
       </c>
       <c r="H1109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1110" spans="1:8">
@@ -29278,7 +29278,7 @@
         <v>-429138.1102634498</v>
       </c>
       <c r="H1111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1112" spans="1:8">
@@ -29408,7 +29408,7 @@
         <v>-425787.7479734798</v>
       </c>
       <c r="H1116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1117" spans="1:8">
@@ -29434,7 +29434,7 @@
         <v>-427983.3875734798</v>
       </c>
       <c r="H1117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1118" spans="1:8">
@@ -29460,7 +29460,7 @@
         <v>-423473.6636734798</v>
       </c>
       <c r="H1118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1119" spans="1:8">
@@ -29486,7 +29486,7 @@
         <v>-420059.5715734798</v>
       </c>
       <c r="H1119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1120" spans="1:8">
@@ -29512,7 +29512,7 @@
         <v>-417037.1371734798</v>
       </c>
       <c r="H1120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1121" spans="1:8">
@@ -29720,7 +29720,7 @@
         <v>-417772.8524636397</v>
       </c>
       <c r="H1128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:8">
@@ -29746,7 +29746,7 @@
         <v>-420649.1358636398</v>
       </c>
       <c r="H1129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1130" spans="1:8">
@@ -29772,7 +29772,7 @@
         <v>-423548.6964636398</v>
       </c>
       <c r="H1130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1131" spans="1:8">
@@ -29798,7 +29798,7 @@
         <v>-422086.9481458698</v>
       </c>
       <c r="H1131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1132" spans="1:8">
@@ -29824,7 +29824,7 @@
         <v>-422777.7499458698</v>
       </c>
       <c r="H1132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1133" spans="1:8">
@@ -29850,7 +29850,7 @@
         <v>-428458.7811458698</v>
       </c>
       <c r="H1133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134" spans="1:8">
@@ -30032,7 +30032,7 @@
         <v>-429813.3685565699</v>
       </c>
       <c r="H1140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1141" spans="1:8">
@@ -30058,7 +30058,7 @@
         <v>-429813.3685565699</v>
       </c>
       <c r="H1141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1142" spans="1:8">
@@ -30110,7 +30110,7 @@
         <v>-432824.0274565699</v>
       </c>
       <c r="H1143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1144" spans="1:8">
@@ -30136,7 +30136,7 @@
         <v>-433392.2474565699</v>
       </c>
       <c r="H1144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>-432654.1171946598</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>-432654.1171946598</v>
       </c>
       <c r="H1149">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30292,7 +30292,7 @@
         <v>-432684.1271946598</v>
       </c>
       <c r="H1150">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1151" spans="1:8">
@@ -30318,7 +30318,7 @@
         <v>-431029.3245946598</v>
       </c>
       <c r="H1151">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1152" spans="1:8">
@@ -30344,7 +30344,7 @@
         <v>-432210.1078946599</v>
       </c>
       <c r="H1152">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:8">
@@ -30370,7 +30370,7 @@
         <v>-426841.6221946598</v>
       </c>
       <c r="H1153">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1154" spans="1:8">
@@ -30448,7 +30448,7 @@
         <v>-426052.8457946599</v>
       </c>
       <c r="H1156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1157" spans="1:8">
@@ -30526,7 +30526,7 @@
         <v>-426043.2008946599</v>
       </c>
       <c r="H1159">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
